--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_10-00.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_10-00.xlsx
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>2:0</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -803,45 +809,71 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" customHeight="1">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c t="s" r="B10" s="7">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c t="s" r="H10" s="8">
+        <v>23</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9">
+        <v>96</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c t="s" r="N10" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="26.25" customHeight="1">
-      <c r="K10" s="10">
-        <v>422</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="11">
-        <v>22</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c t="s" r="F11" s="12">
-        <v>23</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c t="s" r="I11" s="14">
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="K11" s="10">
+        <v>439</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="11">
         <v>24</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c t="s" r="F12" s="12">
+        <v>25</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c t="s" r="I12" s="14">
+        <v>26</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="32">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -867,10 +899,13 @@
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:N12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
